--- a/data/lesson_info.xlsx
+++ b/data/lesson_info.xlsx
@@ -1,141 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dbswl\PycharmProjects\classschedule\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3917030-1F6E-448A-81E5-F351097801FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
-  <si>
-    <t>강좌ID</t>
-  </si>
-  <si>
-    <t>강좌명</t>
-  </si>
-  <si>
-    <t>대상학과</t>
-  </si>
-  <si>
-    <t>교과구분</t>
-  </si>
-  <si>
-    <t>교과목번호</t>
-  </si>
-  <si>
-    <t>학점</t>
-  </si>
-  <si>
-    <t>비고</t>
-  </si>
-  <si>
-    <t>A001</t>
-  </si>
-  <si>
-    <t>수학(I)</t>
-  </si>
-  <si>
-    <t>수학과1</t>
-  </si>
-  <si>
-    <t>전공기초</t>
-  </si>
-  <si>
-    <t>MA15619</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>nan</t>
-  </si>
-  <si>
-    <t>A002</t>
-  </si>
-  <si>
-    <t>수학(II)</t>
-  </si>
-  <si>
-    <t>MA15644</t>
-  </si>
-  <si>
-    <t>A003</t>
-  </si>
-  <si>
-    <t>집합론</t>
-  </si>
-  <si>
-    <t>MA16095</t>
-  </si>
-  <si>
-    <t>A004</t>
-  </si>
-  <si>
-    <t>미분방정식(II)</t>
-  </si>
-  <si>
-    <t>수학과2</t>
-  </si>
-  <si>
-    <t>전공선택</t>
-  </si>
-  <si>
-    <t>MA22310</t>
-  </si>
-  <si>
-    <t>A005</t>
-  </si>
-  <si>
-    <t>선형대수학(II)</t>
-  </si>
-  <si>
-    <t>MA22302</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -150,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -474,156 +420,241 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>강좌ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>강좌명</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>대상학과</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>교과구분</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>교과목번호</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>학점</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>비고</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>A001</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>수학(I)</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>수학과1</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>전공기초</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>MA15619</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="G2" t="inlineStr"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>A002</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>수학(II)</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>수학과1</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>전공기초</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>MA15644</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G3" t="inlineStr"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
-      </c>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>A003</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>집합론</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>수학과1</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>전공기초</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>MA16095</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>3</v>
+      </c>
+      <c r="G4" t="inlineStr"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" t="s">
-        <v>13</v>
-      </c>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A004</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>미분방정식(II)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>수학과2</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>전공선택</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>MA22310</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>3</v>
+      </c>
+      <c r="G5" t="inlineStr"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" t="s">
-        <v>13</v>
-      </c>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A005</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>선형대수학(II)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>수학과2</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>전공선택</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>MA22302</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>3</v>
+      </c>
+      <c r="G6" t="inlineStr"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" t="s">
-        <v>13</v>
-      </c>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A006</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>해석학1</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>수학과2</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>전공필수</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/lesson_info.xlsx
+++ b/data/lesson_info.xlsx
@@ -647,10 +647,8 @@
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="F7" t="n">
+        <v>3</v>
       </c>
       <c r="G7" t="inlineStr"/>
     </row>

--- a/data/lesson_info.xlsx
+++ b/data/lesson_info.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G57"/>
+  <dimension ref="A1:G63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2222,6 +2222,180 @@
       </c>
       <c r="G57" t="inlineStr"/>
     </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>A057</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>미분다양체론</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>대학원</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>A058</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>응용수치해석학</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>대학원</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>A059</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>편미분방정식론</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>대학원</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>A060</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>비선형미분방정식론</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>대학원</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>A061</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>위상수학특강(박사)</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>대학원</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>A062</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>대수곡선론</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>대학원</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
